--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H2">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5939366706792319</v>
+        <v>0.167924</v>
       </c>
       <c r="N2">
-        <v>0.5939366706792319</v>
+        <v>0.503772</v>
       </c>
       <c r="O2">
-        <v>0.1977856521474601</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="P2">
-        <v>0.1977856521474601</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="Q2">
-        <v>46.00825311368754</v>
+        <v>17.94748029118533</v>
       </c>
       <c r="R2">
-        <v>46.00825311368754</v>
+        <v>161.527322620668</v>
       </c>
       <c r="S2">
-        <v>0.02347068751153517</v>
+        <v>0.006474541050172226</v>
       </c>
       <c r="T2">
-        <v>0.02347068751153517</v>
+        <v>0.006474541050172227</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H3">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.08487664756852251</v>
+        <v>0.6325493333333333</v>
       </c>
       <c r="N3">
-        <v>0.08487664756852251</v>
+        <v>1.897648</v>
       </c>
       <c r="O3">
-        <v>0.02826460112697223</v>
+        <v>0.1616492990632312</v>
       </c>
       <c r="P3">
-        <v>0.02826460112697223</v>
+        <v>0.1616492990632313</v>
       </c>
       <c r="Q3">
-        <v>6.574819299013829</v>
+        <v>67.60598064125688</v>
       </c>
       <c r="R3">
-        <v>6.574819299013829</v>
+        <v>608.4538257713119</v>
       </c>
       <c r="S3">
-        <v>0.003354083643007414</v>
+        <v>0.02438881056266967</v>
       </c>
       <c r="T3">
-        <v>0.003354083643007414</v>
+        <v>0.02438881056266968</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H4">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.79621050391671</v>
+        <v>0.2560303333333334</v>
       </c>
       <c r="N4">
-        <v>1.79621050391671</v>
+        <v>0.7680910000000001</v>
       </c>
       <c r="O4">
-        <v>0.5981524351830307</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="P4">
-        <v>0.5981524351830307</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="Q4">
-        <v>139.1402679601442</v>
+        <v>27.36416093855322</v>
       </c>
       <c r="R4">
-        <v>139.1402679601442</v>
+        <v>246.277448446979</v>
       </c>
       <c r="S4">
-        <v>0.07098112900514052</v>
+        <v>0.00987160205364299</v>
       </c>
       <c r="T4">
-        <v>0.07098112900514052</v>
+        <v>0.00987160205364299</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H5">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I5">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J5">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.527907200538939</v>
+        <v>0.209825</v>
       </c>
       <c r="N5">
-        <v>0.527907200538939</v>
+        <v>0.629475</v>
       </c>
       <c r="O5">
-        <v>0.1757973115425368</v>
+        <v>0.05362121559310657</v>
       </c>
       <c r="P5">
-        <v>0.1757973115425368</v>
+        <v>0.05362121559310658</v>
       </c>
       <c r="Q5">
-        <v>40.89339706059505</v>
+        <v>22.42580007680833</v>
       </c>
       <c r="R5">
-        <v>40.89339706059505</v>
+        <v>201.832200691275</v>
       </c>
       <c r="S5">
-        <v>0.02086139070141779</v>
+        <v>0.008090091802555844</v>
       </c>
       <c r="T5">
-        <v>0.02086139070141779</v>
+        <v>0.008090091802555844</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>76.9701855606306</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H6">
-        <v>76.9701855606306</v>
+        <v>320.635769</v>
       </c>
       <c r="I6">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J6">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5939366706792319</v>
+        <v>1.862788333333333</v>
       </c>
       <c r="N6">
-        <v>0.5939366706792319</v>
+        <v>5.588365</v>
       </c>
       <c r="O6">
-        <v>0.1977856521474601</v>
+        <v>0.476039436797285</v>
       </c>
       <c r="P6">
-        <v>0.1977856521474601</v>
+        <v>0.4760394367972851</v>
       </c>
       <c r="Q6">
-        <v>45.71541575344363</v>
+        <v>199.0921899141872</v>
       </c>
       <c r="R6">
-        <v>45.71541575344363</v>
+        <v>1791.829709227685</v>
       </c>
       <c r="S6">
-        <v>0.02332129922337296</v>
+        <v>0.07182236923815875</v>
       </c>
       <c r="T6">
-        <v>0.02332129922337296</v>
+        <v>0.07182236923815877</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>76.9701855606306</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H7">
-        <v>76.9701855606306</v>
+        <v>320.635769</v>
       </c>
       <c r="I7">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J7">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.08487664756852251</v>
+        <v>0.7839796666666666</v>
       </c>
       <c r="N7">
-        <v>0.08487664756852251</v>
+        <v>2.351939</v>
       </c>
       <c r="O7">
-        <v>0.02826460112697223</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="P7">
-        <v>0.02826460112697223</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="Q7">
-        <v>6.532971313113423</v>
+        <v>83.79064110067677</v>
       </c>
       <c r="R7">
-        <v>6.532971313113423</v>
+        <v>754.1157699060909</v>
       </c>
       <c r="S7">
-        <v>0.003332735277582008</v>
+        <v>0.03022741558284505</v>
       </c>
       <c r="T7">
-        <v>0.003332735277582008</v>
+        <v>0.03022741558284505</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H8">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J8">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.79621050391671</v>
+        <v>0.167924</v>
       </c>
       <c r="N8">
-        <v>1.79621050391671</v>
+        <v>0.503772</v>
       </c>
       <c r="O8">
-        <v>0.5981524351830307</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="P8">
-        <v>0.5981524351830307</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="Q8">
-        <v>138.254655792423</v>
+        <v>12.969261361852</v>
       </c>
       <c r="R8">
-        <v>138.254655792423</v>
+        <v>116.723352256668</v>
       </c>
       <c r="S8">
-        <v>0.07052934209652577</v>
+        <v>0.00467865202888475</v>
       </c>
       <c r="T8">
-        <v>0.07052934209652577</v>
+        <v>0.004678652028884752</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H9">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J9">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.527907200538939</v>
+        <v>0.6325493333333333</v>
       </c>
       <c r="N9">
-        <v>0.527907200538939</v>
+        <v>1.897648</v>
       </c>
       <c r="O9">
-        <v>0.1757973115425368</v>
+        <v>0.1616492990632312</v>
       </c>
       <c r="P9">
-        <v>0.1757973115425368</v>
+        <v>0.1616492990632313</v>
       </c>
       <c r="Q9">
-        <v>40.63311518427516</v>
+        <v>48.85363395503467</v>
       </c>
       <c r="R9">
-        <v>40.63311518427516</v>
+        <v>439.682705595312</v>
       </c>
       <c r="S9">
-        <v>0.02072861029419553</v>
+        <v>0.0176239145194832</v>
       </c>
       <c r="T9">
-        <v>0.02072861029419553</v>
+        <v>0.0176239145194832</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>121.711490137238</v>
+        <v>77.232923</v>
       </c>
       <c r="H10">
-        <v>121.711490137238</v>
+        <v>231.698769</v>
       </c>
       <c r="I10">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J10">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.5939366706792319</v>
+        <v>0.2560303333333334</v>
       </c>
       <c r="N10">
-        <v>0.5939366706792319</v>
+        <v>0.7680910000000001</v>
       </c>
       <c r="O10">
-        <v>0.1977856521474601</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="P10">
-        <v>0.1977856521474601</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="Q10">
-        <v>72.28891723551932</v>
+        <v>19.77397101999767</v>
       </c>
       <c r="R10">
-        <v>72.28891723551932</v>
+        <v>177.965739179979</v>
       </c>
       <c r="S10">
-        <v>0.03687752679480326</v>
+        <v>0.007133446312058069</v>
       </c>
       <c r="T10">
-        <v>0.03687752679480326</v>
+        <v>0.007133446312058069</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>121.711490137238</v>
+        <v>77.232923</v>
       </c>
       <c r="H11">
-        <v>121.711490137238</v>
+        <v>231.698769</v>
       </c>
       <c r="I11">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J11">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.08487664756852251</v>
+        <v>0.209825</v>
       </c>
       <c r="N11">
-        <v>0.08487664756852251</v>
+        <v>0.629475</v>
       </c>
       <c r="O11">
-        <v>0.02826460112697223</v>
+        <v>0.05362121559310657</v>
       </c>
       <c r="P11">
-        <v>0.02826460112697223</v>
+        <v>0.05362121559310658</v>
       </c>
       <c r="Q11">
-        <v>10.33046325341805</v>
+        <v>16.205398068475</v>
       </c>
       <c r="R11">
-        <v>10.33046325341805</v>
+        <v>145.848582616275</v>
       </c>
       <c r="S11">
-        <v>0.005269990892095811</v>
+        <v>0.005846086098239339</v>
       </c>
       <c r="T11">
-        <v>0.005269990892095811</v>
+        <v>0.005846086098239341</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>121.711490137238</v>
+        <v>77.232923</v>
       </c>
       <c r="H12">
-        <v>121.711490137238</v>
+        <v>231.698769</v>
       </c>
       <c r="I12">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J12">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.79621050391671</v>
+        <v>1.862788333333333</v>
       </c>
       <c r="N12">
-        <v>1.79621050391671</v>
+        <v>5.588365</v>
       </c>
       <c r="O12">
-        <v>0.5981524351830307</v>
+        <v>0.476039436797285</v>
       </c>
       <c r="P12">
-        <v>0.5981524351830307</v>
+        <v>0.4760394367972851</v>
       </c>
       <c r="Q12">
-        <v>218.6194570318619</v>
+        <v>143.8685879136317</v>
       </c>
       <c r="R12">
-        <v>218.6194570318619</v>
+        <v>1294.817291222685</v>
       </c>
       <c r="S12">
-        <v>0.1115267068988063</v>
+        <v>0.05190049317032016</v>
       </c>
       <c r="T12">
-        <v>0.1115267068988063</v>
+        <v>0.05190049317032017</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>121.711490137238</v>
+        <v>77.232923</v>
       </c>
       <c r="H13">
-        <v>121.711490137238</v>
+        <v>231.698769</v>
       </c>
       <c r="I13">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J13">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.527907200538939</v>
+        <v>0.7839796666666666</v>
       </c>
       <c r="N13">
-        <v>0.527907200538939</v>
+        <v>2.351939</v>
       </c>
       <c r="O13">
-        <v>0.1757973115425368</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="P13">
-        <v>0.1757973115425368</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="Q13">
-        <v>64.252372031772</v>
+        <v>60.54904122923233</v>
       </c>
       <c r="R13">
-        <v>64.252372031772</v>
+        <v>544.941371063091</v>
       </c>
       <c r="S13">
-        <v>0.03277775711471158</v>
+        <v>0.02184302457096299</v>
       </c>
       <c r="T13">
-        <v>0.03277775711471158</v>
+        <v>0.021843024570963</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H14">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I14">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J14">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.5939366706792319</v>
+        <v>0.167924</v>
       </c>
       <c r="N14">
-        <v>0.5939366706792319</v>
+        <v>0.503772</v>
       </c>
       <c r="O14">
-        <v>0.1977856521474601</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="P14">
-        <v>0.1977856521474601</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="Q14">
-        <v>83.36897017129021</v>
+        <v>22.951237214388</v>
       </c>
       <c r="R14">
-        <v>83.36897017129021</v>
+        <v>206.561134929492</v>
       </c>
       <c r="S14">
-        <v>0.04252991397464555</v>
+        <v>0.008279642885011434</v>
       </c>
       <c r="T14">
-        <v>0.04252991397464555</v>
+        <v>0.008279642885011434</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H15">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I15">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J15">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.08487664756852251</v>
+        <v>0.6325493333333333</v>
       </c>
       <c r="N15">
-        <v>0.08487664756852251</v>
+        <v>1.897648</v>
       </c>
       <c r="O15">
-        <v>0.02826460112697223</v>
+        <v>0.1616492990632312</v>
       </c>
       <c r="P15">
-        <v>0.02826460112697223</v>
+        <v>0.1616492990632313</v>
       </c>
       <c r="Q15">
-        <v>11.91386059945918</v>
+        <v>86.45452585179201</v>
       </c>
       <c r="R15">
-        <v>11.91386059945918</v>
+        <v>778.090732666128</v>
       </c>
       <c r="S15">
-        <v>0.006077746496806421</v>
+        <v>0.03118841015669029</v>
       </c>
       <c r="T15">
-        <v>0.006077746496806421</v>
+        <v>0.03118841015669029</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H16">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I16">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J16">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.79621050391671</v>
+        <v>0.2560303333333334</v>
       </c>
       <c r="N16">
-        <v>1.79621050391671</v>
+        <v>0.7680910000000001</v>
       </c>
       <c r="O16">
-        <v>0.5981524351830307</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="P16">
-        <v>0.5981524351830307</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="Q16">
-        <v>252.1282609998416</v>
+        <v>34.99328812088901</v>
       </c>
       <c r="R16">
-        <v>252.1282609998416</v>
+        <v>314.9395930880011</v>
       </c>
       <c r="S16">
-        <v>0.1286209152982068</v>
+        <v>0.01262380438609394</v>
       </c>
       <c r="T16">
-        <v>0.1286209152982068</v>
+        <v>0.01262380438609394</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H17">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I17">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J17">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.527907200538939</v>
+        <v>0.209825</v>
       </c>
       <c r="N17">
-        <v>0.527907200538939</v>
+        <v>0.629475</v>
       </c>
       <c r="O17">
-        <v>0.1757973115425368</v>
+        <v>0.05362121559310657</v>
       </c>
       <c r="P17">
-        <v>0.1757973115425368</v>
+        <v>0.05362121559310658</v>
       </c>
       <c r="Q17">
-        <v>74.10062693150199</v>
+        <v>28.678112411025</v>
       </c>
       <c r="R17">
-        <v>74.10062693150199</v>
+        <v>258.103011699225</v>
       </c>
       <c r="S17">
-        <v>0.03780175384665317</v>
+        <v>0.01034560913477242</v>
       </c>
       <c r="T17">
-        <v>0.03780175384665317</v>
+        <v>0.01034560913477242</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>194.159493575321</v>
+        <v>136.676337</v>
       </c>
       <c r="H18">
-        <v>194.159493575321</v>
+        <v>410.029011</v>
       </c>
       <c r="I18">
-        <v>0.2974363579169756</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J18">
-        <v>0.2974363579169756</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5939366706792319</v>
+        <v>1.862788333333333</v>
       </c>
       <c r="N18">
-        <v>0.5939366706792319</v>
+        <v>5.588365</v>
       </c>
       <c r="O18">
-        <v>0.1977856521474601</v>
+        <v>0.476039436797285</v>
       </c>
       <c r="P18">
-        <v>0.1977856521474601</v>
+        <v>0.4760394367972851</v>
       </c>
       <c r="Q18">
-        <v>115.3184431948919</v>
+        <v>254.599086006335</v>
       </c>
       <c r="R18">
-        <v>115.3184431948919</v>
+        <v>2291.391774057015</v>
       </c>
       <c r="S18">
-        <v>0.05882864402297438</v>
+        <v>0.09184644345278603</v>
       </c>
       <c r="T18">
-        <v>0.05882864402297438</v>
+        <v>0.09184644345278603</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>194.159493575321</v>
+        <v>136.676337</v>
       </c>
       <c r="H19">
-        <v>194.159493575321</v>
+        <v>410.029011</v>
       </c>
       <c r="I19">
-        <v>0.2974363579169756</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J19">
-        <v>0.2974363579169756</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.08487664756852251</v>
+        <v>0.7839796666666666</v>
       </c>
       <c r="N19">
-        <v>0.08487664756852251</v>
+        <v>2.351939</v>
       </c>
       <c r="O19">
-        <v>0.02826460112697223</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="P19">
-        <v>0.02826460112697223</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="Q19">
-        <v>16.47960690827533</v>
+        <v>107.151469122481</v>
       </c>
       <c r="R19">
-        <v>16.47960690827533</v>
+        <v>964.363222102329</v>
       </c>
       <c r="S19">
-        <v>0.008406920017182667</v>
+        <v>0.03865481806716314</v>
       </c>
       <c r="T19">
-        <v>0.008406920017182667</v>
+        <v>0.03865481806716314</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>194.159493575321</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H20">
-        <v>194.159493575321</v>
+        <v>430.367156</v>
       </c>
       <c r="I20">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J20">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>1.79621050391671</v>
+        <v>0.167924</v>
       </c>
       <c r="N20">
-        <v>1.79621050391671</v>
+        <v>0.503772</v>
       </c>
       <c r="O20">
-        <v>0.5981524351830307</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="P20">
-        <v>0.5981524351830307</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="Q20">
-        <v>348.7513217951405</v>
+        <v>24.08965810138133</v>
       </c>
       <c r="R20">
-        <v>348.7513217951405</v>
+        <v>216.806922912432</v>
       </c>
       <c r="S20">
-        <v>0.1779122818000105</v>
+        <v>0.008690327429338909</v>
       </c>
       <c r="T20">
-        <v>0.1779122818000105</v>
+        <v>0.008690327429338909</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>194.159493575321</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H21">
-        <v>194.159493575321</v>
+        <v>430.367156</v>
       </c>
       <c r="I21">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J21">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.527907200538939</v>
+        <v>0.6325493333333333</v>
       </c>
       <c r="N21">
-        <v>0.527907200538939</v>
+        <v>1.897648</v>
       </c>
       <c r="O21">
-        <v>0.1757973115425368</v>
+        <v>0.1616492990632312</v>
       </c>
       <c r="P21">
-        <v>0.1757973115425368</v>
+        <v>0.1616492990632313</v>
       </c>
       <c r="Q21">
-        <v>102.4981947114058</v>
+        <v>90.74281920545421</v>
       </c>
       <c r="R21">
-        <v>102.4981947114058</v>
+        <v>816.6853728490879</v>
       </c>
       <c r="S21">
-        <v>0.05228851207680806</v>
+        <v>0.03273540900572108</v>
       </c>
       <c r="T21">
-        <v>0.05228851207680806</v>
+        <v>0.03273540900572109</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>42.1054306722281</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H22">
-        <v>42.1054306722281</v>
+        <v>430.367156</v>
       </c>
       <c r="I22">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J22">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.5939366706792319</v>
+        <v>0.2560303333333334</v>
       </c>
       <c r="N22">
-        <v>0.5939366706792319</v>
+        <v>0.7680910000000001</v>
       </c>
       <c r="O22">
-        <v>0.1977856521474601</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="P22">
-        <v>0.1977856521474601</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="Q22">
-        <v>25.00795931097838</v>
+        <v>36.72901546879956</v>
       </c>
       <c r="R22">
-        <v>25.00795931097838</v>
+        <v>330.561139219196</v>
       </c>
       <c r="S22">
-        <v>0.01275758062012878</v>
+        <v>0.01324996682135639</v>
       </c>
       <c r="T22">
-        <v>0.01275758062012878</v>
+        <v>0.01324996682135639</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>42.1054306722281</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H23">
-        <v>42.1054306722281</v>
+        <v>430.367156</v>
       </c>
       <c r="I23">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J23">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.08487664756852251</v>
+        <v>0.209825</v>
       </c>
       <c r="N23">
-        <v>0.08487664756852251</v>
+        <v>0.629475</v>
       </c>
       <c r="O23">
-        <v>0.02826460112697223</v>
+        <v>0.05362121559310657</v>
       </c>
       <c r="P23">
-        <v>0.02826460112697223</v>
+        <v>0.05362121559310658</v>
       </c>
       <c r="Q23">
-        <v>3.573767799887563</v>
+        <v>30.10059616923333</v>
       </c>
       <c r="R23">
-        <v>3.573767799887563</v>
+        <v>270.9053655231</v>
       </c>
       <c r="S23">
-        <v>0.001823124800297915</v>
+        <v>0.01085876916260354</v>
       </c>
       <c r="T23">
-        <v>0.001823124800297915</v>
+        <v>0.01085876916260354</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>42.1054306722281</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H24">
-        <v>42.1054306722281</v>
+        <v>430.367156</v>
       </c>
       <c r="I24">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J24">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.79621050391671</v>
+        <v>1.862788333333333</v>
       </c>
       <c r="N24">
-        <v>1.79621050391671</v>
+        <v>5.588365</v>
       </c>
       <c r="O24">
-        <v>0.5981524351830307</v>
+        <v>0.476039436797285</v>
       </c>
       <c r="P24">
-        <v>0.5981524351830307</v>
+        <v>0.4760394367972851</v>
       </c>
       <c r="Q24">
-        <v>75.63021684539294</v>
+        <v>267.2276390822155</v>
       </c>
       <c r="R24">
-        <v>75.63021684539294</v>
+        <v>2405.04875173994</v>
       </c>
       <c r="S24">
-        <v>0.03858206008434099</v>
+        <v>0.09640218520413507</v>
       </c>
       <c r="T24">
-        <v>0.03858206008434099</v>
+        <v>0.09640218520413509</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>42.1054306722281</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H25">
-        <v>42.1054306722281</v>
+        <v>430.367156</v>
       </c>
       <c r="I25">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J25">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.527907200538939</v>
+        <v>0.7839796666666666</v>
       </c>
       <c r="N25">
-        <v>0.527907200538939</v>
+        <v>2.351939</v>
       </c>
       <c r="O25">
-        <v>0.1757973115425368</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="P25">
-        <v>0.1757973115425368</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="Q25">
-        <v>22.22776003366231</v>
+        <v>112.4663665017204</v>
       </c>
       <c r="R25">
-        <v>22.22776003366231</v>
+        <v>1012.197298515484</v>
       </c>
       <c r="S25">
-        <v>0.01133928750875072</v>
+        <v>0.04057216360542452</v>
       </c>
       <c r="T25">
-        <v>0.01133928750875072</v>
+        <v>0.04057216360542452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H26">
+        <v>595.794632</v>
+      </c>
+      <c r="I26">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J26">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.167924</v>
+      </c>
+      <c r="N26">
+        <v>0.503772</v>
+      </c>
+      <c r="O26">
+        <v>0.04291332780772943</v>
+      </c>
+      <c r="P26">
+        <v>0.04291332780772943</v>
+      </c>
+      <c r="Q26">
+        <v>33.34940592798933</v>
+      </c>
+      <c r="R26">
+        <v>300.144653351904</v>
+      </c>
+      <c r="S26">
+        <v>0.01203077502671343</v>
+      </c>
+      <c r="T26">
+        <v>0.01203077502671343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H27">
+        <v>595.794632</v>
+      </c>
+      <c r="I27">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J27">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.6325493333333333</v>
+      </c>
+      <c r="N27">
+        <v>1.897648</v>
+      </c>
+      <c r="O27">
+        <v>0.1616492990632312</v>
+      </c>
+      <c r="P27">
+        <v>0.1616492990632313</v>
+      </c>
+      <c r="Q27">
+        <v>125.6231657583929</v>
+      </c>
+      <c r="R27">
+        <v>1130.608491825536</v>
+      </c>
+      <c r="S27">
+        <v>0.04531846979961705</v>
+      </c>
+      <c r="T27">
+        <v>0.04531846979961706</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H28">
+        <v>595.794632</v>
+      </c>
+      <c r="I28">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J28">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.2560303333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.7680910000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.06542908472318174</v>
+      </c>
+      <c r="P28">
+        <v>0.06542908472318174</v>
+      </c>
+      <c r="Q28">
+        <v>50.84716607639022</v>
+      </c>
+      <c r="R28">
+        <v>457.624494687512</v>
+      </c>
+      <c r="S28">
+        <v>0.01834307984771552</v>
+      </c>
+      <c r="T28">
+        <v>0.01834307984771552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H29">
+        <v>595.794632</v>
+      </c>
+      <c r="I29">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J29">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.209825</v>
+      </c>
+      <c r="N29">
+        <v>0.629475</v>
+      </c>
+      <c r="O29">
+        <v>0.05362121559310657</v>
+      </c>
+      <c r="P29">
+        <v>0.05362121559310658</v>
+      </c>
+      <c r="Q29">
+        <v>41.67086955313334</v>
+      </c>
+      <c r="R29">
+        <v>375.0378259782</v>
+      </c>
+      <c r="S29">
+        <v>0.01503273725006637</v>
+      </c>
+      <c r="T29">
+        <v>0.01503273725006637</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H30">
+        <v>595.794632</v>
+      </c>
+      <c r="I30">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J30">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.862788333333333</v>
+      </c>
+      <c r="N30">
+        <v>5.588365</v>
+      </c>
+      <c r="O30">
+        <v>0.476039436797285</v>
+      </c>
+      <c r="P30">
+        <v>0.4760394367972851</v>
+      </c>
+      <c r="Q30">
+        <v>369.9464298507422</v>
+      </c>
+      <c r="R30">
+        <v>3329.51786865668</v>
+      </c>
+      <c r="S30">
+        <v>0.1334579176336902</v>
+      </c>
+      <c r="T30">
+        <v>0.1334579176336902</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H31">
+        <v>595.794632</v>
+      </c>
+      <c r="I31">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J31">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.7839796666666666</v>
+      </c>
+      <c r="N31">
+        <v>2.351939</v>
+      </c>
+      <c r="O31">
+        <v>0.200347636015466</v>
+      </c>
+      <c r="P31">
+        <v>0.200347636015466</v>
+      </c>
+      <c r="Q31">
+        <v>155.6969589990498</v>
+      </c>
+      <c r="R31">
+        <v>1401.272630991448</v>
+      </c>
+      <c r="S31">
+        <v>0.0561675698243518</v>
+      </c>
+      <c r="T31">
+        <v>0.0561675698243518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H32">
+        <v>136.651993</v>
+      </c>
+      <c r="I32">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J32">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.167924</v>
+      </c>
+      <c r="N32">
+        <v>0.503772</v>
+      </c>
+      <c r="O32">
+        <v>0.04291332780772943</v>
+      </c>
+      <c r="P32">
+        <v>0.04291332780772943</v>
+      </c>
+      <c r="Q32">
+        <v>7.649049757510667</v>
+      </c>
+      <c r="R32">
+        <v>68.84144781759601</v>
+      </c>
+      <c r="S32">
+        <v>0.002759389387608679</v>
+      </c>
+      <c r="T32">
+        <v>0.002759389387608679</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H33">
+        <v>136.651993</v>
+      </c>
+      <c r="I33">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J33">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.6325493333333333</v>
+      </c>
+      <c r="N33">
+        <v>1.897648</v>
+      </c>
+      <c r="O33">
+        <v>0.1616492990632312</v>
+      </c>
+      <c r="P33">
+        <v>0.1616492990632313</v>
+      </c>
+      <c r="Q33">
+        <v>28.81304235694045</v>
+      </c>
+      <c r="R33">
+        <v>259.317381212464</v>
+      </c>
+      <c r="S33">
+        <v>0.01039428501904996</v>
+      </c>
+      <c r="T33">
+        <v>0.01039428501904996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H34">
+        <v>136.651993</v>
+      </c>
+      <c r="I34">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J34">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.2560303333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.7680910000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.06542908472318174</v>
+      </c>
+      <c r="P34">
+        <v>0.06542908472318174</v>
+      </c>
+      <c r="Q34">
+        <v>11.66235177281811</v>
+      </c>
+      <c r="R34">
+        <v>104.961165955363</v>
+      </c>
+      <c r="S34">
+        <v>0.004207185302314813</v>
+      </c>
+      <c r="T34">
+        <v>0.004207185302314813</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H35">
+        <v>136.651993</v>
+      </c>
+      <c r="I35">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J35">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.209825</v>
+      </c>
+      <c r="N35">
+        <v>0.629475</v>
+      </c>
+      <c r="O35">
+        <v>0.05362121559310657</v>
+      </c>
+      <c r="P35">
+        <v>0.05362121559310658</v>
+      </c>
+      <c r="Q35">
+        <v>9.557668143741669</v>
+      </c>
+      <c r="R35">
+        <v>86.019013293675</v>
+      </c>
+      <c r="S35">
+        <v>0.003447922144869054</v>
+      </c>
+      <c r="T35">
+        <v>0.003447922144869055</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H36">
+        <v>136.651993</v>
+      </c>
+      <c r="I36">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J36">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.862788333333333</v>
+      </c>
+      <c r="N36">
+        <v>5.588365</v>
+      </c>
+      <c r="O36">
+        <v>0.476039436797285</v>
+      </c>
+      <c r="P36">
+        <v>0.4760394367972851</v>
+      </c>
+      <c r="Q36">
+        <v>84.85124609571612</v>
+      </c>
+      <c r="R36">
+        <v>763.6612148614449</v>
+      </c>
+      <c r="S36">
+        <v>0.03061002809819477</v>
+      </c>
+      <c r="T36">
+        <v>0.03061002809819477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H37">
+        <v>136.651993</v>
+      </c>
+      <c r="I37">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J37">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.7839796666666666</v>
+      </c>
+      <c r="N37">
+        <v>2.351939</v>
+      </c>
+      <c r="O37">
+        <v>0.200347636015466</v>
+      </c>
+      <c r="P37">
+        <v>0.200347636015466</v>
+      </c>
+      <c r="Q37">
+        <v>35.71079464049189</v>
+      </c>
+      <c r="R37">
+        <v>321.397151764427</v>
+      </c>
+      <c r="S37">
+        <v>0.0128826443647185</v>
+      </c>
+      <c r="T37">
+        <v>0.0128826443647185</v>
       </c>
     </row>
   </sheetData>
